--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_84.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_84.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,646 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1589673913043478</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:maj']]</t>
-        </is>
+          <t>isophonics_62</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_78</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1697792869269949</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E/4']]</t>
+          <t>[['C#:min', 'A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(40.34, 42.74)]</t>
+          <t>[['F#:min', 'D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(48.277, 54.481)]</t>
+          <t>[('0:00:19.476303', '0:00:29.878843')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:15.668231', '0:00:23.783605')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09642857142857142</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A#/F', 'F:7', 'A#']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
+          <t>[('0:04:31.220000', '0:04:35.780000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:59.500000', '0:01:05.040000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1613636363636363</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj', 'G:maj', 'D:7/F#']]</t>
-        </is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#'], ['A#', 'A#/F', 'F:7']]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(23.26, 26.8), (11.32, 18.84)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(271.22, 275.78), (269.7, 272.54)]</t>
+          <t>[('0:00:11.620000', '0:00:15.600000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:07.400000', '0:00:18.240000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_19</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_235</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2444444444444444</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['F', 'Bb', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['Bb', 'Eb', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96)]</t>
+          <t>[('0:00:13.976734', '0:00:18.678775')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:55.589104', '0:01:14.118628')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3333333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(83.42, 105.16)]</t>
+          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(81.62, 103.56)]</t>
+          <t>[('0:02:45.140000', '0:02:48.700000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:04.820000', '0:00:22.080000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(128.54, 132.84)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(60.76, 64.36)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:25.180000', '0:00:48.160000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2280405405405405</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb', 'G:min/5']]</t>
-        </is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'B:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(24.840544, 28.544126)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(38.957845, 45.238843)]</t>
+          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1651651651651652</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D', 'D']]</t>
-        </is>
+          <t>isophonics_164</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3642857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'G']]</t>
+          <t>[['C:min', 'D:7', 'G'], ['Eb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(51.584671, 57.2039)]</t>
+          <t>[['G:min', 'A:7/C#', 'D:maj'], ['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(6.886543, 14.990307)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>[('0:01:14.967000', '0:01:24.194000'), ('0:00:48.001000', '0:00:54.307000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:11.520000', '0:00:16.540000'), ('0:00:58.320000', '0:00:59.680000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1113122171945701</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(25.015959, 36.625937)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(16.92, 23.9)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:06.600000', '0:00:19.060000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:06.060000', '0:01:08.180000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.421195652173913</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(233.34, 249.14)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(21.44, 25.4)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_71</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_24</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1880877742946708</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:7', 'Bb:7']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:7', 'C:7']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(97.39, 100.09)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(63.1, 67.68)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:16.740000', '0:01:23.980000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:06.740000', '0:01:13.840000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2638888888888889</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C/3', 'F', 'C/3', 'F', 'C/3']]</t>
-        </is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A', 'E']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(76.585782, 79.023877)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(9.162102, 17.463236)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:15.620000', '0:00:58.080000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:18.380000', '0:01:02.360000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1733870967741936</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D/7', 'D/6', 'A'], ['A', 'D', 'D/7']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'D:maj', 'A:maj'], ['A:maj', 'D:maj', 'D:maj']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.39, 14.239254), (10.560212, 12.866913)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(19.727, 38.543), (45.298, 63.135)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:02:01.740000', '0:02:08.480000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
-        </is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:hdim7/A', 'A:min', 'B:hdim7/A', 'A:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(56.76, 66.04)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(8.84, 28.88)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:01.140000', '0:00:16.460000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:01.240000', '0:00:15.940000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1033018867924528</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'D'], ['D/5', 'A/3', 'D'], ['D', 'B:min', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'D'], ['D/5', 'A', 'D/5'], ['D', 'B:min', 'D/5']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(10.8617, 16.701519), (21.740249, 26.767369), (35.138163, 41.93)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(35.463242, 38.330907), (31.898979, 34.035215), (24.062244, 28.381156)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:00.220000', '0:00:15.080000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:02.020000', '0:00:16.560000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_14</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_155</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1439393939393939</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj', 'G:7', 'C:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(80.08, 87.62)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(8.6, 11.26)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
